--- a/firma.xlsx
+++ b/firma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\MEB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vsCode\mySplit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B3A448-9B4B-48B0-AEA1-E72664D1C9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F47C5F-AE25-47B5-B8E5-2C33BFEA4546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elektrik" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Gaz" sheetId="3" r:id="rId3"/>
     <sheet name="Telefon" sheetId="4" r:id="rId4"/>
     <sheet name="İnternet" sheetId="5" r:id="rId5"/>
+    <sheet name="ADM" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
   <si>
     <t>Firma Adı</t>
   </si>
@@ -125,6 +126,21 @@
   </si>
   <si>
     <t>Türk Telekomünikasyon A.Ş.</t>
+  </si>
+  <si>
+    <t>ADM ELEKTRİK DAĞITIM A.Ş.</t>
+  </si>
+  <si>
+    <t>Adalet Mahallesi, Hasan Gönüllü Bulvarı No:17/A PK:15 2013 Merkezefendi/ Denizli</t>
+  </si>
+  <si>
+    <t>Pamukkale V.D. 1090046353</t>
+  </si>
+  <si>
+    <t>0 (258) 296 70 00</t>
+  </si>
+  <si>
+    <t>bilgi@admelektrik.com.tr</t>
   </si>
 </sst>
 </file>
@@ -463,13 +479,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -477,7 +493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -485,7 +501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -493,7 +509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -501,7 +517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -509,7 +525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -531,13 +547,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -545,7 +561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -553,7 +569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -561,7 +577,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -569,7 +585,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -577,7 +593,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -601,13 +617,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -615,7 +631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -623,7 +639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -631,7 +647,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -639,7 +655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -647,7 +663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -671,13 +687,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -685,7 +701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -693,7 +709,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -701,7 +717,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -709,7 +725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -717,7 +733,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -741,13 +757,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -755,7 +771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -763,7 +779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -771,7 +787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -779,7 +795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -787,7 +803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -801,4 +817,72 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FD37E5-F4A4-4819-B445-891AD6279400}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>